--- a/data/trans_camb/P1429-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1429-Estudios-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.711406834586368</v>
+        <v>-2.704875107872483</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.39682969686539</v>
+        <v>-2.452806193841113</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.200486750461626</v>
+        <v>-1.272480479932402</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.555696250680813</v>
+        <v>-1.506372264028205</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.963941905834287</v>
+        <v>-3.022435697083978</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.540195617237347</v>
+        <v>1.620354274611773</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.612936803995529</v>
+        <v>-1.547252978088277</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.38052961539413</v>
+        <v>-2.37273394098656</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.012181904318578</v>
+        <v>1.146156872616421</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.6973058894932519</v>
+        <v>-0.7828644266881164</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.3099559271349427</v>
+        <v>-0.3968873272037127</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.541511460044885</v>
+        <v>1.331537602552108</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.565480387548324</v>
+        <v>2.737558550824231</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.479690564733873</v>
+        <v>1.347629331420398</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.145621039036151</v>
+        <v>6.160434641773831</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.087177481886305</v>
+        <v>0.8857270871755175</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3049305092907738</v>
+        <v>0.2905172718046236</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.818154223207108</v>
+        <v>4.144777735131318</v>
       </c>
     </row>
     <row r="7">
@@ -783,28 +783,28 @@
         <v>-1</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8986312525919578</v>
+        <v>-0.9119317877122146</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4726676805962357</v>
+        <v>-0.4783118495194381</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1827079289540683</v>
+        <v>-0.1753682772387664</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.35105621045793</v>
+        <v>-0.3530931905670638</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1691425001121379</v>
+        <v>0.1882553892967536</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2808562398587141</v>
+        <v>-0.2611380834533619</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4296042134871334</v>
+        <v>-0.4061230280708629</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1738366788242691</v>
+        <v>0.2021871672512668</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.2412088829245921</v>
+        <v>-0.1306573861066964</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.04467267251925765</v>
+        <v>-0.05201232295551986</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.062851765638813</v>
+        <v>0.8832579101955366</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3771532075671172</v>
+        <v>0.4256350385046842</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2209572124146126</v>
+        <v>0.1968206136989784</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9386031534328672</v>
+        <v>0.9673951117685868</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2476847016001063</v>
+        <v>0.1893809292852746</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.06646372241174096</v>
+        <v>0.0661046922685246</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.8544437311882436</v>
+        <v>0.9114144812271199</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-0.1490752237028874</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.4513707364276285</v>
+        <v>0.4513707364276281</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.6976323554337396</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8548860217768888</v>
+        <v>-0.873944920913954</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.8178646078638765</v>
+        <v>-0.8004356367491633</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.376969764436653</v>
+        <v>-0.4048953388654921</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.946246140359458</v>
+        <v>-1.897386264830544</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.236276582103782</v>
+        <v>-1.132937621224055</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.5293149367999339</v>
+        <v>-0.5345155879598739</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.221142463422294</v>
+        <v>-1.193995601227958</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.7349695730498663</v>
+        <v>-0.7790828161511125</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.2230739448650041</v>
+        <v>-0.2732785872496926</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.05268218292418531</v>
+        <v>-0.07553642677920655</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03166256816819207</v>
+        <v>0.0513180830077236</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8178332625954808</v>
+        <v>0.7764185616876302</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.04861613176625773</v>
+        <v>0.0539539342243686</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8871803879107804</v>
+        <v>0.9290500602945928</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.430386221228501</v>
+        <v>1.34488695951986</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-0.1818568718604791</v>
+        <v>-0.1808484492979915</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3339043188443891</v>
+        <v>0.3221937090097121</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.857348226021877</v>
+        <v>0.8117069807482162</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.06265468551994044</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1897061821630474</v>
+        <v>0.1897061821630472</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.4833877533684997</v>
@@ -997,28 +997,28 @@
         <v>-1</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.9161123970983118</v>
+        <v>-0.8940764869956793</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5189352507234259</v>
+        <v>-0.5503184227938346</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6680098706643057</v>
+        <v>-0.6564550178007919</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4032385224402252</v>
+        <v>-0.3871196745948007</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.186206742556305</v>
+        <v>-0.1818649218288325</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6806309541910196</v>
+        <v>-0.671796675742388</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4135373185883517</v>
+        <v>-0.457307329876791</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1354383632174717</v>
+        <v>-0.1547603890152516</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.09403568344961463</v>
+        <v>0.1346850062380643</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2880318578524431</v>
+        <v>0.3897342755196173</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.701870329073824</v>
+        <v>2.200331460893332</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.006867705864421507</v>
+        <v>0.05783586466368358</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4641365491755419</v>
+        <v>0.5288636493747083</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.831955147761673</v>
+        <v>0.7162671992560792</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.1426384850001381</v>
+        <v>-0.1239744060147724</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3110555927346076</v>
+        <v>0.2910562977234755</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.7774497840044169</v>
+        <v>0.72374397615348</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.674048788225307</v>
+        <v>-1.672946853041811</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.142837123895143</v>
+        <v>-1.228079530430534</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.412271399256235</v>
+        <v>-1.232099148671031</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.159795236197703</v>
+        <v>-1.156903292230188</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.099689747072988</v>
+        <v>-0.9752605217773557</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.1047489115459689</v>
+        <v>-0.05102023411748157</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.9194688664231355</v>
+        <v>-0.8669192924176851</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.7653567680933119</v>
+        <v>-0.7256387270490495</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.2300707798611186</v>
+        <v>-0.2357737286555702</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.1505664917361652</v>
+        <v>-0.151391344586859</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5564796450747871</v>
+        <v>0.5821309351529292</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3577357298997787</v>
+        <v>0.3766812636515699</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.442078322680016</v>
+        <v>2.459985404718495</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.135409174288132</v>
+        <v>2.200696036308815</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.541904312642214</v>
+        <v>2.551534449731305</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.881352361723249</v>
+        <v>0.8946335462327464</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.105290508219135</v>
+        <v>1.035947251367852</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.306478178401314</v>
+        <v>1.279251716083248</v>
       </c>
     </row>
     <row r="19">
@@ -1213,22 +1213,22 @@
         <v>-1</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6335338349558358</v>
+        <v>-0.6460307948403335</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5935642304239973</v>
+        <v>-0.5578067893395</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.09065303091965664</v>
+        <v>-0.1340607950531688</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.683913853297434</v>
+        <v>-0.6956865953900372</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5465827992645583</v>
+        <v>-0.5517330487124618</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1799596671736166</v>
+        <v>-0.1797858041302333</v>
       </c>
     </row>
     <row r="21">
@@ -1240,26 +1240,24 @@
       </c>
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="inlineStr"/>
-      <c r="E21" s="6" t="n">
-        <v>2.96779136203934</v>
-      </c>
+      <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="n">
-        <v>3.507892886728426</v>
+        <v>4.012445882929125</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.941467598468352</v>
+        <v>3.052324945841047</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.981746524267934</v>
+        <v>3.337038154953054</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.684594571825219</v>
+        <v>2.059227549667452</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.948740672164598</v>
+        <v>1.926289922592685</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.396069334671153</v>
+        <v>2.392167801494388</v>
       </c>
     </row>
     <row r="22">
@@ -1298,7 +1296,7 @@
         <v>-0.7528154215174169</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.1444728468515264</v>
+        <v>0.1444728468515261</v>
       </c>
     </row>
     <row r="23">
@@ -1309,31 +1307,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.255679780658346</v>
+        <v>-1.280318577664403</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.118227485781994</v>
+        <v>-1.170012268791966</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.6617155832149725</v>
+        <v>-0.7110000566291903</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.228377328753245</v>
+        <v>-1.303207541497092</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.737215749554761</v>
+        <v>-1.714865656604605</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.4824985106621341</v>
+        <v>-0.4857259722222676</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.164292854814114</v>
+        <v>-1.102212654103101</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.323680495534562</v>
+        <v>-1.266836351867821</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.3435969145734837</v>
+        <v>-0.3815661381238892</v>
       </c>
     </row>
     <row r="24">
@@ -1344,31 +1342,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.4676272571927297</v>
+        <v>-0.478931436249142</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.2908070775196471</v>
+        <v>-0.3284891148685268</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3245659441848971</v>
+        <v>0.3037909776779804</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6964338352996685</v>
+        <v>0.7000490474942997</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.136231875829058</v>
+        <v>0.222257392104572</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.221336235230086</v>
+        <v>1.31733679104247</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-0.01310905557004831</v>
+        <v>-0.01587640920503419</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.2075293218864137</v>
+        <v>-0.2138943700551935</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6243138909423194</v>
+        <v>0.6511189425147155</v>
       </c>
     </row>
     <row r="25">
@@ -1403,7 +1401,7 @@
         <v>-0.2797350962182616</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.05368397692156324</v>
+        <v>0.05368397692156311</v>
       </c>
     </row>
     <row r="26">
@@ -1414,31 +1412,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.9403054780507113</v>
+        <v>-0.9500193077570601</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.8408776683799025</v>
+        <v>-0.8405605244536171</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5158514212883244</v>
+        <v>-0.5366663446552442</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2596646855762125</v>
+        <v>-0.2816081947616306</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3690798869839348</v>
+        <v>-0.3683520605396974</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.09700347485227009</v>
+        <v>-0.09842411737608897</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3832972596291407</v>
+        <v>-0.3702015593125006</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4431341316617234</v>
+        <v>-0.4269280648042242</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1173368371217405</v>
+        <v>-0.1273074657811621</v>
       </c>
     </row>
     <row r="27">
@@ -1449,31 +1447,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.4622086019690895</v>
+        <v>-0.5171339075743022</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.3581452142508397</v>
+        <v>-0.3350415962330875</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4636986801753494</v>
+        <v>0.433554081590616</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1856556600016005</v>
+        <v>0.1819811710374176</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.03705531394660255</v>
+        <v>0.06541278517372567</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3221036488512672</v>
+        <v>0.3643661289362622</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.01177815247244354</v>
+        <v>-0.005481242637344062</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.08637852684189498</v>
+        <v>-0.08544110586121187</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.2582595257642543</v>
+        <v>0.2740708649984629</v>
       </c>
     </row>
     <row r="28">
